--- a/SourceCode/2023/Sep2023/Basics/Chandupriya/Task_3/DateandTime.xlsx
+++ b/SourceCode/2023/Sep2023/Basics/Chandupriya/Task_3/DateandTime.xlsx
@@ -23,25 +23,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
-    <x:t>09/11/2023 21:15:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monday, 11 September 2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21:15:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/11/2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monday</x:t>
+    <x:t>10/17/2023 13:24:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tuesday, 17 October 2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13:24:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/17/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tuesday</x:t>
   </x:si>
   <x:si>
     <x:t>PM</x:t>
